--- a/test/dv/well_leakage_shear/SasakiEtal2022.xlsx
+++ b/test/dv/well_leakage_shear/SasakiEtal2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://slategeotech-my.sharepoint.com/personal/bzheng_slategeotech_com/Documents/CEC/OpenSRA/test/dv/well_leakage_shear/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="93" documentId="13_ncr:40009_{D6F4385A-CD96-4FC7-9CA2-EF6DEDCEFB6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DCFFCC24-EB2A-44DE-967B-2C51A33873CC}"/>
+  <xr:revisionPtr revIDLastSave="94" documentId="13_ncr:40009_{D6F4385A-CD96-4FC7-9CA2-EF6DEDCEFB6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD8E0AE8-4E36-4BDB-A077-0C818821FCE8}"/>
   <bookViews>
-    <workbookView xWindow="1290" yWindow="-120" windowWidth="27630" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1300" yWindow="-110" windowWidth="18010" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SasakiEtal2022" sheetId="1" r:id="rId1"/>
@@ -588,16 +588,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>30645</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>66261</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>466862</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>491158</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>104361</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>319984</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>165101</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -627,8 +627,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2482297" y="1590261"/>
-          <a:ext cx="5976731" cy="3657600"/>
+          <a:off x="1681645" y="1402522"/>
+          <a:ext cx="5927035" cy="3500231"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -962,13 +962,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -985,7 +985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>100</v>
       </c>
@@ -997,11 +997,11 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D4" si="0">B2/100</f>
+        <f t="shared" ref="D2" si="0">B2/100</f>
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1016,7 +1016,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="N6">
         <f>0.2/0.1</f>
         <v>2</v>
